--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_6_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_6_sawtooth_0_.xlsx
@@ -599,14 +599,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.43093069071740864, 13.216161424433466]</t>
+          <t>[0.5421730213202043, 13.10491909383067]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.03697667191614551</v>
+        <v>0.03390699391187768</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03697667191614551</v>
+        <v>0.03390699391187768</v>
       </c>
       <c r="P2" t="n">
         <v>-1.446579199851156</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[4.765703047310684, 12.20981739706685]</t>
+          <t>[4.765362072965749, 12.210158371411785]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.519218430225735e-05</v>
+        <v>3.52404668229056e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.519218430225735e-05</v>
+        <v>3.52404668229056e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.808708708708824</v>
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.12839547654627737, 13.99200776507549]</t>
+          <t>[0.010535859336384235, 14.109867382285383]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.04607473025698638</v>
+        <v>0.04967287044907787</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04607473025698638</v>
+        <v>0.04967287044907787</v>
       </c>
       <c r="P3" t="n">
         <v>-1.434000250287233</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.8051057527548506, -0.06289474781961513]</t>
+          <t>[-2.7673689040630816, -0.1006315965113842]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.04077007242776842</v>
+        <v>0.03563895790123506</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04077007242776842</v>
+        <v>0.03563895790123506</v>
       </c>
       <c r="T3" t="n">
         <v>9.472727877466946</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.431014284748185, 13.514441470185707]</t>
+          <t>[5.429395286749703, 13.51606046818419]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.318362792430584e-05</v>
+        <v>2.332795500503693e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.318362792430584e-05</v>
+        <v>2.332795500503693e-05</v>
       </c>
       <c r="X3" t="n">
         <v>5.758198198198315</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.252552552552558</v>
+        <v>0.4040840840840918</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.26384384384407</v>
+        <v>11.11231231231254</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.3697779304765412, 13.9710242129876]</t>
+          <t>[-0.35937052420678484, 13.960616806717844]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06248815650346362</v>
+        <v>0.06212244149622315</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06248815650346362</v>
+        <v>0.06212244149622315</v>
       </c>
       <c r="P4" t="n">
         <v>-1.723316090257464</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.132158441416851, -0.3144737390980774]</t>
+          <t>[-3.182474239672543, -0.2641579408423853]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01763978673126743</v>
+        <v>0.02167664886900855</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01763978673126743</v>
+        <v>0.02167664886900855</v>
       </c>
       <c r="T4" t="n">
         <v>9.290348189309947</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.25366366016865, 13.327032718451244]</t>
+          <t>[5.25556013683389, 13.325136241786005]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.063825453852864e-05</v>
+        <v>3.042090737492842e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.063825453852864e-05</v>
+        <v>3.042090737492842e-05</v>
       </c>
       <c r="X4" t="n">
         <v>6.919939939940079</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.262762762762788</v>
+        <v>1.060720720720743</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.57711711711737</v>
+        <v>12.77915915915941</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.0132355611149446, 14.453182666146361]</t>
+          <t>[-1.031846092105722, 14.471793197137139]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08689862716330943</v>
+        <v>0.08763431059698479</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08689862716330943</v>
+        <v>0.08763431059698479</v>
       </c>
       <c r="P5" t="n">
         <v>-2.025210879791619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.886895415252237, -0.16352634433100022]</t>
+          <t>[-3.849158566560468, -0.2012631930227693]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.03366970365869704</v>
+        <v>0.03033121292927854</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03366970365869704</v>
+        <v>0.03033121292927854</v>
       </c>
       <c r="T5" t="n">
         <v>9.225558390397929</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.149960979783063, 13.301155801012793]</t>
+          <t>[5.148674261202096, 13.302442519593761]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.928662554741891e-05</v>
+        <v>3.947087820010964e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>3.928662554741891e-05</v>
+        <v>3.947087820010964e-05</v>
       </c>
       <c r="X5" t="n">
         <v>8.132192192192356</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6566366366366507</v>
+        <v>0.8081681681681845</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.60774774774806</v>
+        <v>15.45621621621653</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.1371792601953583, 14.70344017775389]</t>
+          <t>[-1.2270646350737229, 14.793325552632254]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09140431587137021</v>
+        <v>0.09498328970761771</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09140431587137021</v>
+        <v>0.09498328970761771</v>
       </c>
       <c r="P6" t="n">
         <v>-2.31452671976185</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.377500938577122, 0.7484474990534231]</t>
+          <t>[-5.4466851611787, 0.8176317216550011]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1350180995100958</v>
+        <v>0.1436379007227098</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1350180995100958</v>
+        <v>0.1436379007227098</v>
       </c>
       <c r="T6" t="n">
         <v>9.236585909132497</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.121814785845885, 13.35135703241911]</t>
+          <t>[5.12589877850044, 13.347273039764554]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.444822534543924e-05</v>
+        <v>4.380518358271246e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.444822534543924e-05</v>
+        <v>4.380518358271246e-05</v>
       </c>
       <c r="X6" t="n">
         <v>9.293933933934118</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.005375375375433</v>
+        <v>-3.283183183183249</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.59324324324367</v>
+        <v>21.87105105105149</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.0630004339244472, 14.672227413454896]</t>
+          <t>[-1.256895988949096, 14.866122968479544]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.08834471179148218</v>
+        <v>0.09601912210720487</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08834471179148218</v>
+        <v>0.09601912210720487</v>
       </c>
       <c r="P7" t="n">
         <v>-2.603842559732081</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.704527136907238, -0.5031579825569241]</t>
+          <t>[-4.729685036035086, -0.4780000834290763]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.01627105006194807</v>
+        <v>0.01749774854600372</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01627105006194807</v>
+        <v>0.01749774854600372</v>
       </c>
       <c r="T7" t="n">
         <v>9.14963377781422</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.073936878165913, 13.225330677462527]</t>
+          <t>[5.0697596541581085, 13.229507901470331]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.439415661261492e-05</v>
+        <v>4.506577507901177e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.439415661261492e-05</v>
+        <v>4.506577507901177e-05</v>
       </c>
       <c r="X7" t="n">
         <v>10.45567567567589</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.020420420420461</v>
+        <v>1.919399399399431</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.89093093093131</v>
+        <v>18.99195195195234</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.46383250486024785, 14.101803474329037]</t>
+          <t>[-0.38666915139748603, 14.024640120866275]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06578289387492076</v>
+        <v>0.06304660226229042</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06578289387492076</v>
+        <v>0.06304660226229042</v>
       </c>
       <c r="P8" t="n">
         <v>-2.880579450138389</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.478106044756622, -1.283052855520157]</t>
+          <t>[-4.503263943884468, -1.257894956392311]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0007180902850743021</v>
+        <v>0.0008493165035166061</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0007180902850743021</v>
+        <v>0.0008493165035166061</v>
       </c>
       <c r="T8" t="n">
         <v>9.110451000071517</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.048280011932899, 13.172621988210135]</t>
+          <t>[5.052781712019428, 13.168120288123607]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.502820116436546e-05</v>
+        <v>4.430218969586619e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.502820116436546e-05</v>
+        <v>4.430218969586619e-05</v>
       </c>
       <c r="X8" t="n">
         <v>11.56690690690714</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.152072072072177</v>
+        <v>5.051051051051155</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.9817417417421</v>
+        <v>18.08276276276312</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.8012296780706567, 14.587334166776314]</t>
+          <t>[-0.7998486858797236, 14.58595317458538]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07786879691371418</v>
+        <v>0.07781726301977621</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07786879691371418</v>
+        <v>0.07781726301977621</v>
       </c>
       <c r="P9" t="n">
         <v>2.647868883205811</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.8616580451287308, 4.434079721282892]</t>
+          <t>[0.8490790955648087, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.00456404591100501</v>
+        <v>0.004830425816805484</v>
       </c>
       <c r="S9" t="n">
-        <v>0.00456404591100501</v>
+        <v>0.004830425816805484</v>
       </c>
       <c r="T9" t="n">
         <v>9.082057721166377</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.078574363641317, 13.085541078691438]</t>
+          <t>[5.0772436763167885, 13.086871766015966]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.80379378059903e-05</v>
+        <v>3.82263026006413e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.80379378059903e-05</v>
+        <v>3.82263026006413e-05</v>
       </c>
       <c r="X9" t="n">
         <v>13.83959959959978</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.039519519519607</v>
+        <v>6.991631631631724</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.63967967967994</v>
+        <v>20.68756756756783</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.8418281341646718, 14.413791650192096]</t>
+          <t>[-0.573672721254642, 14.145636237282066]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07988732627831641</v>
+        <v>0.06984817430381196</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07988732627831641</v>
+        <v>0.06984817430381196</v>
       </c>
       <c r="P10" t="n">
         <v>2.698184681461504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.8742369946926556, 4.522132368230352]</t>
+          <t>[1.0000264903318858, 4.396342872591122]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.004641822280333718</v>
+        <v>0.002518791213439231</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004641822280333718</v>
+        <v>0.002518791213439231</v>
       </c>
       <c r="T10" t="n">
         <v>9.019829246685575</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.0397122355011525, 12.999946257869997]</t>
+          <t>[5.042848423156576, 12.996810070214574]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.861980870656367e-05</v>
+        <v>3.817020239949009e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.861980870656367e-05</v>
+        <v>3.817020239949009e-05</v>
       </c>
       <c r="X10" t="n">
         <v>13.64804804804822</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.70430430430439</v>
+        <v>7.183183183183272</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.59179179179205</v>
+        <v>20.11291291291316</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.2328221154174379, 13.954869214376028]</t>
+          <t>[-0.6366779821237074, 14.358725081082298]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05766886240056879</v>
+        <v>0.07191101117458487</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05766886240056879</v>
+        <v>0.07191101117458487</v>
       </c>
       <c r="P11" t="n">
         <v>2.72334258058935</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.050342288587578, 4.396342872591122]</t>
+          <t>[1.025184389459732, 4.421500771718968]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.002016522535124965</v>
+        <v>0.00231510667046142</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002016522535124965</v>
+        <v>0.00231510667046142</v>
       </c>
       <c r="T11" t="n">
         <v>9.103718473711663</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.111901809341841, 13.095535138081484]</t>
+          <t>[5.112196489310984, 13.095240458112341]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.514591694209201e-05</v>
+        <v>3.51070971273959e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.514591694209201e-05</v>
+        <v>3.51070971273959e-05</v>
       </c>
       <c r="X11" t="n">
         <v>13.55227227227244</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.183183183183271</v>
+        <v>7.087407407407494</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.92136136136161</v>
+        <v>20.01713713713739</v>
       </c>
     </row>
     <row r="12">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.7077910810786783, 14.3160562068016]</t>
+          <t>[-0.3228455298972346, 13.931110655620156]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07474617299404684</v>
+        <v>0.06083931900375106</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07474617299404684</v>
+        <v>0.06083931900375106</v>
       </c>
       <c r="P12" t="n">
         <v>2.761079429281119</v>
@@ -1487,14 +1487,14 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.0840507921942155, 13.040521635456852]</t>
+          <t>[5.08085240530394, 13.043720022347127]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.575757119711476e-05</v>
+        <v>3.618946456329653e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.575757119711476e-05</v>
+        <v>3.618946456329653e-05</v>
       </c>
       <c r="X12" t="n">
         <v>13.40860860860878</v>
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.5818104799071708, 14.132925086940139]</t>
+          <t>[-0.43072155405570633, 13.981836161088674]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.07017933701628998</v>
+        <v>0.06470177429913204</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07017933701628998</v>
+        <v>0.06470177429913204</v>
       </c>
       <c r="P13" t="n">
         <v>2.798816277972889</v>
@@ -1573,14 +1573,14 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.069144622317213, 13.0559512655013]</t>
+          <t>[5.068079252210204, 13.05701663560831]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.782892829451434e-05</v>
+        <v>3.797929612625595e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.782892829451434e-05</v>
+        <v>3.797929612625595e-05</v>
       </c>
       <c r="X13" t="n">
         <v>13.26494494494511</v>
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.5959684184817728, 14.20287517657779]</t>
+          <t>[-0.4215070437718502, 14.028413801867867]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.07061023380607057</v>
+        <v>0.06431102769347508</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07061023380607057</v>
+        <v>0.06431102769347508</v>
       </c>
       <c r="P14" t="n">
         <v>2.836553126664658</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.2138686329185782, 4.459237620410738]</t>
+          <t>[1.3270791789938863, 4.34602707433543]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0009984490502696897</v>
+        <v>0.0004523927187385368</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0009984490502696897</v>
+        <v>0.0004523927187385368</v>
       </c>
       <c r="T14" t="n">
         <v>9.062952911043583</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.08741303908101, 13.038492783006156]</t>
+          <t>[5.083298559295053, 13.042607262792114]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.535803943810478e-05</v>
+        <v>3.590914326823125e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>3.535803943810478e-05</v>
+        <v>3.590914326823125e-05</v>
       </c>
       <c r="X14" t="n">
         <v>13.12128128128145</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.943743743743828</v>
+        <v>7.374734734734825</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.29881881881906</v>
+        <v>18.86782782782807</v>
       </c>
     </row>
     <row r="15">
@@ -1717,14 +1717,14 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.394783633341973, 14.114029497867955]</t>
+          <t>[-0.5531807677137355, 14.272426632239718]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0632499912818234</v>
+        <v>0.06888216327508001</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0632499912818234</v>
+        <v>0.06888216327508001</v>
       </c>
       <c r="P15" t="n">
         <v>2.88686892492035</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.114364242662546, 13.095821370575614]</t>
+          <t>[5.111685418942639, 13.098500194295521]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.492371583457832e-05</v>
+        <v>3.527633103139749e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>3.492371583457832e-05</v>
+        <v>3.527633103139749e-05</v>
       </c>
       <c r="X15" t="n">
         <v>12.92972972972989</v>
@@ -1803,51 +1803,51 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-0.15722352399765782, 13.7789576882809]</t>
+          <t>[-0.24558570020544757, 13.86731986448869]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.05517020525601302</v>
+        <v>0.05816291693807463</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05517020525601302</v>
+        <v>0.05816291693807463</v>
       </c>
       <c r="P16" t="n">
         <v>2.912026824048196</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.4025528763774244, 4.421500771718968]</t>
+          <t>[1.4654476241970404, 4.358606023899352]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0003324052995745674</v>
+        <v>0.0001968129344680491</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0003324052995745674</v>
+        <v>0.0001968129344680491</v>
       </c>
       <c r="T16" t="n">
         <v>9.042687950721373</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[5.058778239393355, 13.02659766204939]</t>
+          <t>[5.059418321762724, 13.025957579680021]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.77242246527576e-05</v>
+        <v>3.763413885304878e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>3.77242246527576e-05</v>
+        <v>3.763413885304878e-05</v>
       </c>
       <c r="X16" t="n">
         <v>12.83395395395411</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.087407407407494</v>
+        <v>7.326846846846939</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.58050050050073</v>
+        <v>18.34106106106129</v>
       </c>
     </row>
     <row r="17">
@@ -1889,51 +1889,51 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.0061830071031092615, 13.794907252972173]</t>
+          <t>[0.05097439504313428, 13.73774985082593]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.05019702020679451</v>
+        <v>0.04838793180150502</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05019702020679451</v>
+        <v>0.04838793180150502</v>
       </c>
       <c r="P17" t="n">
         <v>2.974921571867812</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 4.446658670846814]</t>
+          <t>[1.553500271144502, 4.396342872591122]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.0001867519865992318</v>
+        <v>0.0001185719985772327</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001867519865992318</v>
+        <v>0.0001185719985772327</v>
       </c>
       <c r="T17" t="n">
         <v>9.064070315022491</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[5.080691129271808, 13.047449500773173]</t>
+          <t>[5.077581509481661, 13.050559120563321]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.634737236390961e-05</v>
+        <v>3.677298693505193e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>3.634737236390961e-05</v>
+        <v>3.677298693505193e-05</v>
       </c>
       <c r="X17" t="n">
         <v>12.59451451451467</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.991631631631723</v>
+        <v>7.183183183183275</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.19739739739763</v>
+        <v>18.00584584584607</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_6_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_6_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.5421730213202043, 13.10491909383067]</t>
+          <t>[0.37686094767854605, 13.270231167472328]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.03390699391187768</v>
+        <v>0.0385139566938042</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03390699391187768</v>
+        <v>0.0385139566938042</v>
       </c>
       <c r="P2" t="n">
         <v>-1.446579199851156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.7673689040630816, -0.12578949563923025]</t>
+          <t>[-2.779947853627004, -0.11321054607530767]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.03253779532548884</v>
+        <v>0.03412773618248321</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03253779532548884</v>
+        <v>0.03412773618248321</v>
       </c>
       <c r="T2" t="n">
         <v>8.487760222188767</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[4.765362072965749, 12.210158371411785]</t>
+          <t>[4.7634184453418555, 12.212101999035678]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.52404668229056e-05</v>
+        <v>3.551676072421905e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.52404668229056e-05</v>
+        <v>3.551676072421905e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.808708708708824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5051051051051125</v>
+        <v>0.4545945945946022</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.11231231231254</v>
+        <v>11.16282282282305</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.010535859336384235, 14.109867382285383]</t>
+          <t>[0.09624223042963642, 14.024161011192131]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.04967287044907787</v>
+        <v>0.04704502253574172</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04967287044907787</v>
+        <v>0.04704502253574172</v>
       </c>
       <c r="P3" t="n">
         <v>-1.434000250287233</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.7673689040630816, -0.1006315965113842]</t>
+          <t>[-2.817684702318773, -0.050315798255692545]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03563895790123506</v>
+        <v>0.04255030281703265</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03563895790123506</v>
+        <v>0.04255030281703265</v>
       </c>
       <c r="T3" t="n">
         <v>9.472727877466946</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.429395286749703, 13.51606046818419]</t>
+          <t>[5.433780934355198, 13.511674820578694]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.332795500503693e-05</v>
+        <v>2.293875685088764e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.332795500503693e-05</v>
+        <v>2.293875685088764e-05</v>
       </c>
       <c r="X3" t="n">
         <v>5.758198198198315</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4040840840840918</v>
+        <v>0.2020420420420477</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.11231231231254</v>
+        <v>11.31435435435458</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.35937052420678484, 13.960616806717844]</t>
+          <t>[0.09445909044446488, 13.506787192066595]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06212244149622315</v>
+        <v>0.04698979970779393</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06212244149622315</v>
+        <v>0.04698979970779393</v>
       </c>
       <c r="P4" t="n">
         <v>-1.723316090257464</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.182474239672543, -0.2641579408423853]</t>
+          <t>[-3.195053189236466, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.02167664886900855</v>
+        <v>0.02275846206653531</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02167664886900855</v>
+        <v>0.02275846206653531</v>
       </c>
       <c r="T4" t="n">
         <v>9.290348189309947</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.25556013683389, 13.325136241786005]</t>
+          <t>[5.253039129194491, 13.327657249425403]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.042090737492842e-05</v>
+        <v>3.071011750832575e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.042090737492842e-05</v>
+        <v>3.071011750832575e-05</v>
       </c>
       <c r="X4" t="n">
         <v>6.919939939940079</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.060720720720743</v>
+        <v>1.010210210210232</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.77915915915941</v>
+        <v>12.82966966966993</v>
       </c>
     </row>
     <row r="5">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.031846092105722, 14.471793197137139]</t>
+          <t>[-0.7545573597974116, 14.194504464828828]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08763431059698479</v>
+        <v>0.07685426340937718</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08763431059698479</v>
+        <v>0.07685426340937718</v>
       </c>
       <c r="P5" t="n">
         <v>-2.025210879791619</v>
@@ -885,14 +885,14 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.148674261202096, 13.302442519593761]</t>
+          <t>[5.1475468229554835, 13.303569957840374]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.947087820010964e-05</v>
+        <v>3.963292253006401e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>3.947087820010964e-05</v>
+        <v>3.963292253006401e-05</v>
       </c>
       <c r="X5" t="n">
         <v>8.132192192192356</v>
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.2270646350737229, 14.793325552632254]</t>
+          <t>[-1.2820251056117256, 14.848286023170257]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09498328970761771</v>
+        <v>0.09718757693817359</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09498328970761771</v>
+        <v>0.09718757693817359</v>
       </c>
       <c r="P6" t="n">
         <v>-2.31452671976185</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.4466851611787, 0.8176317216550011]</t>
+          <t>[-5.289448291629661, 0.6603948521059619]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1436379007227098</v>
+        <v>0.1241210630936069</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1436379007227098</v>
+        <v>0.1241210630936069</v>
       </c>
       <c r="T6" t="n">
         <v>9.236585909132497</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.12589877850044, 13.347273039764554]</t>
+          <t>[5.1244742706720885, 13.348697547592906]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.380518358271246e-05</v>
+        <v>4.402858109675556e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.380518358271246e-05</v>
+        <v>4.402858109675556e-05</v>
       </c>
       <c r="X6" t="n">
         <v>9.293933933934118</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.283183183183249</v>
+        <v>-2.651801801801852</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.87105105105149</v>
+        <v>21.23966966967009</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.256895988949096, 14.866122968479544]</t>
+          <t>[-1.1180858909641227, 14.727312870494572]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.09601912210720487</v>
+        <v>0.09050885437380218</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09601912210720487</v>
+        <v>0.09050885437380218</v>
       </c>
       <c r="P7" t="n">
         <v>-2.603842559732081</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.729685036035086, -0.4780000834290763]</t>
+          <t>[-4.742263985599008, -0.46542113386515416]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.01749774854600372</v>
+        <v>0.01813045087675835</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01749774854600372</v>
+        <v>0.01813045087675835</v>
       </c>
       <c r="T7" t="n">
         <v>9.14963377781422</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.0697596541581085, 13.229507901470331]</t>
+          <t>[5.074205199103412, 13.225062356525028]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.506577507901177e-05</v>
+        <v>4.435130579394375e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.506577507901177e-05</v>
+        <v>4.435130579394375e-05</v>
       </c>
       <c r="X7" t="n">
         <v>10.45567567567589</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.919399399399431</v>
+        <v>1.868888888888923</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.99195195195234</v>
+        <v>19.04246246246285</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.38666915139748603, 14.024640120866275]</t>
+          <t>[-0.6861522339575288, 14.324123203426318]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06304660226229042</v>
+        <v>0.07388396608469483</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06304660226229042</v>
+        <v>0.07388396608469483</v>
       </c>
       <c r="P8" t="n">
         <v>-2.880579450138389</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.503263943884468, -1.257894956392311]</t>
+          <t>[-4.478106044756622, -1.283052855520157]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0008493165035166061</v>
+        <v>0.0007180902850743021</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0008493165035166061</v>
+        <v>0.0007180902850743021</v>
       </c>
       <c r="T8" t="n">
         <v>9.110451000071517</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.052781712019428, 13.168120288123607]</t>
+          <t>[5.051713873577265, 13.16918812656577]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.430218969586619e-05</v>
+        <v>4.447350584513288e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.430218969586619e-05</v>
+        <v>4.447350584513288e-05</v>
       </c>
       <c r="X8" t="n">
         <v>11.56690690690714</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.051051051051155</v>
+        <v>5.152072072072177</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.08276276276312</v>
+        <v>17.9817417417421</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.7998486858797236, 14.58595317458538]</t>
+          <t>[-0.6281266668671321, 14.41423115557279]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07781726301977621</v>
+        <v>0.0714918573100356</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07781726301977621</v>
+        <v>0.0714918573100356</v>
       </c>
       <c r="P9" t="n">
         <v>2.647868883205811</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.8490790955648087, 4.446658670846814]</t>
+          <t>[0.8868159442565768, 4.408921822155046]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.004830425816805484</v>
+        <v>0.004062045711068718</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004830425816805484</v>
+        <v>0.004062045711068718</v>
       </c>
       <c r="T9" t="n">
         <v>9.082057721166377</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.0772436763167885, 13.086871766015966]</t>
+          <t>[5.079683785099689, 13.084431657233065]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.82263026006413e-05</v>
+        <v>3.788149499173166e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.82263026006413e-05</v>
+        <v>3.788149499173166e-05</v>
       </c>
       <c r="X9" t="n">
         <v>13.83959959959978</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.991631631631724</v>
+        <v>7.135295295295384</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.68756756756783</v>
+        <v>20.54390390390417</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.573672721254642, 14.145636237282066]</t>
+          <t>[-0.47463762355775607, 14.04660113958518]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.06984817430381196</v>
+        <v>0.06625193714878175</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06984817430381196</v>
+        <v>0.06625193714878175</v>
       </c>
       <c r="P10" t="n">
         <v>2.698184681461504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.0000264903318858, 4.396342872591122]</t>
+          <t>[0.9874475407679637, 4.408921822155044]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.002518791213439231</v>
+        <v>0.002691242959824036</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002518791213439231</v>
+        <v>0.002691242959824036</v>
       </c>
       <c r="T10" t="n">
         <v>9.019829246685575</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.042848423156576, 12.996810070214574]</t>
+          <t>[5.039947285120611, 12.999711208250538]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.817020239949009e-05</v>
+        <v>3.858595726669023e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.817020239949009e-05</v>
+        <v>3.858595726669023e-05</v>
       </c>
       <c r="X10" t="n">
         <v>13.64804804804822</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.183183183183272</v>
+        <v>7.135295295295387</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.11291291291316</v>
+        <v>20.16080080080105</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.6366779821237074, 14.358725081082298]</t>
+          <t>[-0.6564112484071689, 14.37845834736576]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.07191101117458487</v>
+        <v>0.07263398113553854</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07191101117458487</v>
+        <v>0.07263398113553854</v>
       </c>
       <c r="P11" t="n">
         <v>2.72334258058935</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.025184389459732, 4.421500771718968]</t>
+          <t>[1.0000264903318858, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.00231510667046142</v>
+        <v>0.002644636286025515</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00231510667046142</v>
+        <v>0.002644636286025515</v>
       </c>
       <c r="T11" t="n">
         <v>9.103718473711663</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.112196489310984, 13.095240458112341]</t>
+          <t>[5.113346139216587, 13.094090808206738]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.51070971273959e-05</v>
+        <v>3.495599457803422e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.51070971273959e-05</v>
+        <v>3.495599457803422e-05</v>
       </c>
       <c r="X11" t="n">
         <v>13.55227227227244</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.087407407407494</v>
+        <v>6.991631631631718</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.01713713713739</v>
+        <v>20.11291291291316</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.3228455298972346, 13.931110655620156]</t>
+          <t>[-0.5859350645617027, 14.194200190284624]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06083931900375106</v>
+        <v>0.07024048657695081</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06083931900375106</v>
+        <v>0.07024048657695081</v>
       </c>
       <c r="P12" t="n">
         <v>2.761079429281119</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.1383949355350391, 4.3837639230272]</t>
+          <t>[1.100658086843271, 4.421500771718968]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.001314062190816978</v>
+        <v>0.001646849456772737</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001314062190816978</v>
+        <v>0.001646849456772737</v>
       </c>
       <c r="T12" t="n">
         <v>9.062286213825534</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.08085240530394, 13.043720022347127]</t>
+          <t>[5.083842357406104, 13.040730070244964]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.618946456329653e-05</v>
+        <v>3.578558352534955e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>3.618946456329653e-05</v>
+        <v>3.578558352534955e-05</v>
       </c>
       <c r="X12" t="n">
         <v>13.40860860860878</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.231071071071161</v>
+        <v>7.0874074074075</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5861461461464</v>
+        <v>19.72980980981006</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.43072155405570633, 13.981836161088674]</t>
+          <t>[-0.368490446322145, 13.919605053355113]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.06470177429913204</v>
+        <v>0.06249082040411014</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06470177429913204</v>
+        <v>0.06249082040411014</v>
       </c>
       <c r="P13" t="n">
         <v>2.798816277972889</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.1132370364071935, 4.484395519538584]</t>
+          <t>[1.1635528346628865, 4.434079721282891]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.001670249142942781</v>
+        <v>0.001239150381704412</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001670249142942781</v>
+        <v>0.001239150381704412</v>
       </c>
       <c r="T13" t="n">
         <v>9.062547943909257</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.068079252210204, 13.05701663560831]</t>
+          <t>[5.069522489021507, 13.055573398797007]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.797929612625595e-05</v>
+        <v>3.777571680907421e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>3.797929612625595e-05</v>
+        <v>3.777571680907421e-05</v>
       </c>
       <c r="X13" t="n">
         <v>13.26494494494511</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.847967967968054</v>
+        <v>7.03951951951961</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.68192192192217</v>
+        <v>19.49037037037061</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.4215070437718502, 14.028413801867867]</t>
+          <t>[-0.6387533941821175, 14.245660152278134]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06431102769347508</v>
+        <v>0.07218480130273286</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06431102769347508</v>
+        <v>0.07218480130273286</v>
       </c>
       <c r="P14" t="n">
         <v>2.836553126664658</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.3270791789938863, 4.34602707433543]</t>
+          <t>[1.2767633807381942, 4.396342872591122]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0004523927187385368</v>
+        <v>0.0006543604662032632</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0004523927187385368</v>
+        <v>0.0006543604662032632</v>
       </c>
       <c r="T14" t="n">
         <v>9.062952911043583</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.083298559295053, 13.042607262792114]</t>
+          <t>[5.085362969203821, 13.040542852883345]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.590914326823125e-05</v>
+        <v>3.563172851817065e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>3.590914326823125e-05</v>
+        <v>3.563172851817065e-05</v>
       </c>
       <c r="X14" t="n">
         <v>13.12128128128145</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.374734734734825</v>
+        <v>7.183183183183273</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.86782782782807</v>
+        <v>19.05937937937962</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.5531807677137355, 14.272426632239718]</t>
+          <t>[-0.21103007856890876, 13.930275943094891]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.06888216327508001</v>
+        <v>0.05693446056439289</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06888216327508001</v>
+        <v>0.05693446056439289</v>
       </c>
       <c r="P15" t="n">
         <v>2.88686892492035</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.3396581285578102, 4.43407972128289]</t>
+          <t>[1.3145002294299624, 4.459237620410738]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0004908064229998121</v>
+        <v>0.0005887025125212997</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0004908064229998121</v>
+        <v>0.0005887025125212997</v>
       </c>
       <c r="T15" t="n">
         <v>9.10509280661908</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.111685418942639, 13.098500194295521]</t>
+          <t>[5.110644495549224, 13.099541117688936]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.527633103139749e-05</v>
+        <v>3.541415979313456e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>3.527633103139749e-05</v>
+        <v>3.541415979313456e-05</v>
       </c>
       <c r="X15" t="n">
         <v>12.92972972972989</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.039519519519612</v>
+        <v>6.943743743743827</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.81993993994017</v>
+        <v>18.91571571571595</v>
       </c>
     </row>
     <row r="16">
@@ -1803,51 +1803,51 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-0.24558570020544757, 13.86731986448869]</t>
+          <t>[-0.3221363145584313, 13.943870478841674]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.05816291693807463</v>
+        <v>0.06080353739407229</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05816291693807463</v>
+        <v>0.06080353739407229</v>
       </c>
       <c r="P16" t="n">
         <v>2.912026824048196</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.4654476241970404, 4.358606023899352]</t>
+          <t>[1.4151318259413483, 4.408921822155044]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0001968129344680491</v>
+        <v>0.0003005860885521017</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0001968129344680491</v>
+        <v>0.0003005860885521017</v>
       </c>
       <c r="T16" t="n">
         <v>9.042687950721373</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[5.059418321762724, 13.025957579680021]</t>
+          <t>[5.060560373095909, 13.024815528346837]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.763413885304878e-05</v>
+        <v>3.7473857574577e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>3.763413885304878e-05</v>
+        <v>3.7473857574577e-05</v>
       </c>
       <c r="X16" t="n">
         <v>12.83395395395411</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.326846846846939</v>
+        <v>7.135295295295387</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.34106106106129</v>
+        <v>18.53261261261284</v>
       </c>
     </row>
     <row r="17">
@@ -1889,51 +1889,51 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.05097439504313428, 13.73774985082593]</t>
+          <t>[-0.24935883801056313, 14.038083083879627]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.04838793180150502</v>
+        <v>0.05818868668790378</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04838793180150502</v>
+        <v>0.05818868668790378</v>
       </c>
       <c r="P17" t="n">
         <v>2.974921571867812</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 4.396342872591122]</t>
+          <t>[1.515763422452733, 4.434079721282891]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.0001185719985772327</v>
+        <v>0.0001672815260604921</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001185719985772327</v>
+        <v>0.0001672815260604921</v>
       </c>
       <c r="T17" t="n">
         <v>9.064070315022491</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[5.077581509481661, 13.050559120563321]</t>
+          <t>[5.077784688576864, 13.050355941468117]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.677298693505193e-05</v>
+        <v>3.674504951556301e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>3.677298693505193e-05</v>
+        <v>3.674504951556301e-05</v>
       </c>
       <c r="X17" t="n">
         <v>12.59451451451467</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.183183183183275</v>
+        <v>7.03951951951961</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.00584584584607</v>
+        <v>18.14950950950974</v>
       </c>
     </row>
   </sheetData>
